--- a/experi sudoku.xlsx
+++ b/experi sudoku.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VP3 Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="VP1 Data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="VP1 CHR" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
   <si>
     <t>VP3 SD MIN</t>
   </si>
@@ -126,6 +127,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,7 +192,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,7 +216,7 @@
   <dimension ref="B3:L24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -968,8 +970,8 @@
   </sheetPr>
   <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -1708,7 +1710,253 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B5:D24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>18592</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>17830</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
